--- a/data/trans_orig/P14B22-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B22-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A290EF56-0731-4766-8788-26A60C55AD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C5ECE11-ECC8-4313-BDDD-B4E5BBEA6C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B0AA361B-357C-42C0-AD74-E80FDEFB278E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B52DA7F1-422D-483C-8D33-D3348575B518}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="238">
   <si>
     <t>Población cuyo accidente cerebrovascular le limita en 2012 (Tasa respuesta: 0,78%)</t>
   </si>
@@ -106,25 +106,25 @@
     <t>66,17%</t>
   </si>
   <si>
-    <t>15,71%</t>
+    <t>16,98%</t>
   </si>
   <si>
     <t>74,6%</t>
   </si>
   <si>
-    <t>36,92%</t>
+    <t>34,87%</t>
   </si>
   <si>
     <t>33,83%</t>
   </si>
   <si>
-    <t>84,29%</t>
+    <t>83,02%</t>
   </si>
   <si>
     <t>25,4%</t>
   </si>
   <si>
-    <t>63,08%</t>
+    <t>65,13%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -133,10 +133,10 @@
     <t>50,81%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>69,8%</t>
@@ -148,19 +148,19 @@
     <t>58,95%</t>
   </si>
   <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>49,19%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
   </si>
   <si>
     <t>30,2%</t>
@@ -172,10 +172,10 @@
     <t>41,05%</t>
   </si>
   <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -199,91 +199,91 @@
     <t>87,88%</t>
   </si>
   <si>
-    <t>42,85%</t>
+    <t>43,43%</t>
   </si>
   <si>
     <t>89,16%</t>
   </si>
   <si>
-    <t>55,63%</t>
+    <t>55,31%</t>
   </si>
   <si>
     <t>88,55%</t>
   </si>
   <si>
-    <t>59,48%</t>
+    <t>65,59%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>57,15%</t>
+    <t>56,57%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>44,37%</t>
+    <t>44,69%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>40,52%</t>
+    <t>34,41%</t>
   </si>
   <si>
     <t>74,55%</t>
   </si>
   <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>79,75%</t>
   </si>
   <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -367,7 +367,7 @@
     <t>52,45%</t>
   </si>
   <si>
-    <t>11,75%</t>
+    <t>12,73%</t>
   </si>
   <si>
     <t>59,97%</t>
@@ -376,115 +376,115 @@
     <t>47,55%</t>
   </si>
   <si>
-    <t>88,25%</t>
+    <t>87,27%</t>
   </si>
   <si>
     <t>49,81%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
   </si>
   <si>
     <t>59,94%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
   </si>
   <si>
     <t>55,22%</t>
   </si>
   <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
   </si>
   <si>
     <t>50,19%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>40,06%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
   </si>
   <si>
     <t>44,78%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
   </si>
   <si>
     <t>56,35%</t>
   </si>
   <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
   </si>
   <si>
     <t>63,24%</t>
   </si>
   <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>59,73%</t>
   </si>
   <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
   </si>
   <si>
     <t>43,65%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
   </si>
   <si>
     <t>36,76%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
   </si>
   <si>
     <t>Población cuyo accidente cerebrovascular le limita en 2023 (Tasa respuesta: 1,44%)</t>
@@ -505,115 +505,109 @@
     <t>51,82%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
   </si>
   <si>
     <t>56,38%</t>
   </si>
   <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
+    <t>30,03%</t>
   </si>
   <si>
     <t>53,47%</t>
   </si>
   <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
   </si>
   <si>
     <t>48,18%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
   </si>
   <si>
     <t>43,62%</t>
   </si>
   <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
+    <t>69,97%</t>
   </si>
   <si>
     <t>46,53%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
   </si>
   <si>
     <t>63,43%</t>
   </si>
   <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
   </si>
   <si>
     <t>60,92%</t>
   </si>
   <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>62,33%</t>
   </si>
   <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
   <si>
     <t>36,57%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
   </si>
   <si>
     <t>39,08%</t>
   </si>
   <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
   </si>
   <si>
     <t>37,67%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>48,63%</t>
+    <t>53,71%</t>
   </si>
   <si>
     <t>79,5%</t>
@@ -625,16 +619,16 @@
     <t>82,2%</t>
   </si>
   <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>51,37%</t>
+    <t>46,29%</t>
   </si>
   <si>
     <t>20,5%</t>
@@ -646,118 +640,118 @@
     <t>17,8%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
   </si>
   <si>
     <t>73,94%</t>
   </si>
   <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>33,17%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
   </si>
   <si>
     <t>50,42%</t>
   </si>
   <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
   </si>
   <si>
     <t>26,06%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
   </si>
   <si>
     <t>66,83%</t>
   </si>
   <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
   </si>
   <si>
     <t>49,58%</t>
   </si>
   <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
   </si>
   <si>
     <t>67,01%</t>
   </si>
   <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
   </si>
   <si>
     <t>54,04%</t>
   </si>
   <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
   </si>
   <si>
     <t>61,04%</t>
   </si>
   <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
   </si>
   <si>
     <t>32,99%</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
   </si>
   <si>
     <t>45,96%</t>
   </si>
   <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
   </si>
   <si>
     <t>38,96%</t>
   </si>
   <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D05399-25D1-4524-9821-047D9DC1ECB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4593A96F-0157-4E89-A2D6-32FB86A42428}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2232,7 +2226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74472EC-8A4D-4775-82D3-70C59B00E51A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BB0CFD-20C5-449C-B14D-D3FB333E0FE7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3289,7 +3283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8E70CB-1E44-460F-B0DF-10638397160C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE0AB5E-7858-42AC-8805-1F86DB8146CD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3589,7 +3583,7 @@
         <v>158</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3598,13 +3592,13 @@
         <v>9847</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3613,13 @@
         <v>5652</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3634,13 +3628,13 @@
         <v>2916</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -3649,13 +3643,13 @@
         <v>8567</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3717,13 @@
         <v>9524</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3738,13 +3732,13 @@
         <v>7150</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -3753,13 +3747,13 @@
         <v>16675</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3768,13 @@
         <v>5492</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -3789,13 +3783,13 @@
         <v>4586</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -3804,13 +3798,13 @@
         <v>10078</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,10 +3872,10 @@
         <v>7604</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3893,10 +3887,10 @@
         <v>4876</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3908,13 +3902,13 @@
         <v>12480</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,13 +3923,13 @@
         <v>1446</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3944,13 +3938,13 @@
         <v>1257</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3959,13 +3953,13 @@
         <v>2703</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4027,13 @@
         <v>6603</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4048,13 +4042,13 @@
         <v>4038</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4063,13 +4057,13 @@
         <v>10641</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4078,13 @@
         <v>2328</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -4099,13 +4093,13 @@
         <v>8134</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -4114,13 +4108,13 @@
         <v>10462</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4182,13 @@
         <v>30301</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4203,13 +4197,13 @@
         <v>20798</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M19" s="7">
         <v>75</v>
@@ -4218,13 +4212,13 @@
         <v>51100</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4233,13 @@
         <v>14918</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -4254,13 +4248,13 @@
         <v>17692</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M20" s="7">
         <v>51</v>
@@ -4269,13 +4263,13 @@
         <v>32609</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B22-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B22-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C5ECE11-ECC8-4313-BDDD-B4E5BBEA6C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{210470BF-F50B-4968-B7C6-0EA91360ED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B52DA7F1-422D-483C-8D33-D3348575B518}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{563D9BCE-2437-441F-9F0E-536BB3B7C5AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -100,442 +100,442 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>66,17%</t>
   </si>
   <si>
-    <t>16,98%</t>
+    <t>28,99%</t>
   </si>
   <si>
     <t>74,6%</t>
   </si>
   <si>
-    <t>34,87%</t>
+    <t>36,79%</t>
   </si>
   <si>
     <t>33,83%</t>
   </si>
   <si>
-    <t>83,02%</t>
+    <t>71,01%</t>
   </si>
   <si>
     <t>25,4%</t>
   </si>
   <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>50,81%</t>
   </si>
   <si>
-    <t>20,06%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo accidente cerebrovascular le limita en 2016 (Tasa respuesta: 0,59%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>Población cuyo accidente cerebrovascular le limita en 2023 (Tasa respuesta: 1,44%)</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
   </si>
   <si>
     <t>80,89%</t>
   </si>
   <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
   </si>
   <si>
     <t>19,11%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo accidente cerebrovascular le limita en 2015 (Tasa respuesta: 0,59%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>Población cuyo accidente cerebrovascular le limita en 2023 (Tasa respuesta: 1,44%)</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
   </si>
   <si>
     <t>69,97%</t>
@@ -1163,7 +1163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4593A96F-0157-4E89-A2D6-32FB86A42428}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1B06D2-99EE-42B7-B5C8-6D629DDDB58C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2226,7 +2226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BB0CFD-20C5-449C-B14D-D3FB333E0FE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8ACD49-4E13-4851-AD27-0359D795A7D8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2842,7 +2842,7 @@
         <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2860,7 +2860,7 @@
         <v>2919</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
@@ -2890,13 +2890,13 @@
         <v>2919</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2964,13 @@
         <v>3731</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2979,13 +2979,13 @@
         <v>5156</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2994,13 +2994,13 @@
         <v>8887</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3015,13 @@
         <v>3760</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3030,13 +3030,13 @@
         <v>3446</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -3045,13 +3045,13 @@
         <v>7206</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3119,13 @@
         <v>12154</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3134,13 +3134,13 @@
         <v>13154</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -3149,13 +3149,13 @@
         <v>25307</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3170,13 @@
         <v>9414</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -3185,13 +3185,13 @@
         <v>7646</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3200,13 +3200,13 @@
         <v>17061</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE0AB5E-7858-42AC-8805-1F86DB8146CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98AA618-01E0-46A1-B7AE-F3CE587FB422}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3300,7 +3300,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3422,7 +3422,7 @@
         <v>967</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>16</v>
@@ -3437,7 +3437,7 @@
         <v>1458</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>16</v>
@@ -3473,7 +3473,7 @@
         <v>798</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>16</v>
@@ -3488,7 +3488,7 @@
         <v>798</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>16</v>
@@ -3562,13 +3562,13 @@
         <v>6079</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3577,13 +3577,13 @@
         <v>3768</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3592,13 +3592,13 @@
         <v>9847</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3613,13 @@
         <v>5652</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3628,10 +3628,10 @@
         <v>2916</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>166</v>
